--- a/data/pca/factorExposure/factorExposure_2011-02-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-02-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +735,48 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.009794921670093316</v>
+        <v>0.01430431034168926</v>
       </c>
       <c r="C2">
-        <v>0.003505695811472841</v>
+        <v>0.007922471895814947</v>
       </c>
       <c r="D2">
-        <v>0.01172443895938914</v>
+        <v>-0.003995577969440645</v>
       </c>
       <c r="E2">
-        <v>0.01832602452410921</v>
+        <v>0.01183410837135371</v>
       </c>
       <c r="F2">
-        <v>-0.01232544634754109</v>
+        <v>0.002107264610900367</v>
       </c>
       <c r="G2">
-        <v>0.01884370258220036</v>
+        <v>-0.02499963484608506</v>
       </c>
       <c r="H2">
-        <v>-0.03490307606253198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.0110975760214801</v>
+      </c>
+      <c r="I2">
+        <v>0.004116100717782494</v>
+      </c>
+      <c r="J2">
+        <v>0.01185146398865932</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +799,48 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.1073650680396239</v>
+        <v>0.1215304302683906</v>
       </c>
       <c r="C4">
-        <v>-0.01952675734101347</v>
+        <v>0.05330152728060241</v>
       </c>
       <c r="D4">
-        <v>0.07817288010025487</v>
+        <v>-0.01064545271673588</v>
       </c>
       <c r="E4">
-        <v>0.03829262410972157</v>
+        <v>0.002763623593659433</v>
       </c>
       <c r="F4">
-        <v>-0.03029005859002367</v>
+        <v>0.006741939666497195</v>
       </c>
       <c r="G4">
-        <v>0.02174214903561929</v>
+        <v>-0.00449204197743591</v>
       </c>
       <c r="H4">
-        <v>0.02619431133297218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.05658070839770139</v>
+      </c>
+      <c r="I4">
+        <v>-0.1388279594484849</v>
+      </c>
+      <c r="J4">
+        <v>0.02111183934449141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +863,368 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.1278613809240326</v>
+        <v>0.1214557806155624</v>
       </c>
       <c r="C6">
-        <v>-0.03001743251692695</v>
+        <v>-0.0002654178828783779</v>
       </c>
       <c r="D6">
-        <v>-0.02202995834496378</v>
+        <v>-0.01385214898096753</v>
       </c>
       <c r="E6">
-        <v>0.0227480573465948</v>
+        <v>0.01276525609542628</v>
       </c>
       <c r="F6">
-        <v>0.2548553446182285</v>
+        <v>0.02616392706805679</v>
       </c>
       <c r="G6">
-        <v>-0.09038698862051318</v>
+        <v>0.03937720803001994</v>
       </c>
       <c r="H6">
-        <v>0.2841910456168237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.02893042513130553</v>
+      </c>
+      <c r="I6">
+        <v>-0.02136825164301522</v>
+      </c>
+      <c r="J6">
+        <v>-0.1647560624136228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.08949903688298515</v>
+        <v>0.07969665148034887</v>
       </c>
       <c r="C7">
-        <v>-0.03637527191840659</v>
+        <v>0.05093651619254899</v>
       </c>
       <c r="D7">
-        <v>0.02995355203529503</v>
+        <v>-0.04067387641816909</v>
       </c>
       <c r="E7">
-        <v>0.05153802928315923</v>
+        <v>0.04892186867980533</v>
       </c>
       <c r="F7">
-        <v>0.00854867036892764</v>
+        <v>0.007807555224551983</v>
       </c>
       <c r="G7">
-        <v>0.002049722210265247</v>
+        <v>-0.03871794817475949</v>
       </c>
       <c r="H7">
-        <v>0.006181906705546378</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.0266479159581359</v>
+      </c>
+      <c r="I7">
+        <v>-0.04763830965670614</v>
+      </c>
+      <c r="J7">
+        <v>0.04916047429522853</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04217916648523926</v>
+        <v>0.05039335684863006</v>
       </c>
       <c r="C8">
-        <v>0.03611566725623549</v>
+        <v>0.003388177617196654</v>
       </c>
       <c r="D8">
-        <v>0.1181203508505926</v>
+        <v>-0.006293847377534101</v>
       </c>
       <c r="E8">
-        <v>0.08335503165033238</v>
+        <v>0.01840533962260097</v>
       </c>
       <c r="F8">
-        <v>-0.01445881342885248</v>
+        <v>-0.007439989896097273</v>
       </c>
       <c r="G8">
-        <v>0.1310685046788894</v>
+        <v>-0.0009707489991565729</v>
       </c>
       <c r="H8">
-        <v>0.06124323585252803</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.07000389658673443</v>
+      </c>
+      <c r="I8">
+        <v>-0.1033424981588666</v>
+      </c>
+      <c r="J8">
+        <v>-0.03031936635252278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.0939437258987183</v>
+        <v>0.09464156310486489</v>
       </c>
       <c r="C9">
-        <v>-0.03649742677865357</v>
+        <v>0.05524094163408531</v>
       </c>
       <c r="D9">
-        <v>0.06453073093676195</v>
+        <v>0.005015723728607131</v>
       </c>
       <c r="E9">
-        <v>0.03890022518075367</v>
+        <v>0.01439025525092833</v>
       </c>
       <c r="F9">
-        <v>-0.01950246960351852</v>
+        <v>-0.004061972965953861</v>
       </c>
       <c r="G9">
-        <v>0.0650604611617521</v>
+        <v>-0.0196157614641723</v>
       </c>
       <c r="H9">
-        <v>0.04531841093032895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.06837095676068562</v>
+      </c>
+      <c r="I9">
+        <v>-0.1145340352269445</v>
+      </c>
+      <c r="J9">
+        <v>0.006129037691496495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.03828254062199848</v>
+        <v>0.07364039342050187</v>
       </c>
       <c r="C10">
-        <v>0.1748333990534388</v>
+        <v>-0.1819907316645769</v>
       </c>
       <c r="D10">
-        <v>0.03508726886166103</v>
+        <v>0.01296425868126534</v>
       </c>
       <c r="E10">
-        <v>0.09481683020300966</v>
+        <v>-0.003719654944738421</v>
       </c>
       <c r="F10">
-        <v>0.02695675683717894</v>
+        <v>0.01447097858107313</v>
       </c>
       <c r="G10">
-        <v>-0.01864093556441179</v>
+        <v>-0.06865590618750524</v>
       </c>
       <c r="H10">
-        <v>0.02405598884759628</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.004565726924768275</v>
+      </c>
+      <c r="I10">
+        <v>-0.01007193548135189</v>
+      </c>
+      <c r="J10">
+        <v>0.02749207516038865</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.07593103531386222</v>
+        <v>0.08356116212137102</v>
       </c>
       <c r="C11">
-        <v>-0.05639491964095141</v>
+        <v>0.05371089744396844</v>
       </c>
       <c r="D11">
-        <v>-0.0112170213339625</v>
+        <v>-0.02583761390174766</v>
       </c>
       <c r="E11">
-        <v>0.02501955132220436</v>
+        <v>0.03349715959371906</v>
       </c>
       <c r="F11">
-        <v>-0.03758344912002728</v>
+        <v>-0.0446356294769889</v>
       </c>
       <c r="G11">
-        <v>0.1519548374063795</v>
+        <v>0.0007797268198390338</v>
       </c>
       <c r="H11">
-        <v>-0.04039405738337773</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.07775258260751561</v>
+      </c>
+      <c r="I11">
+        <v>-0.09838196346838834</v>
+      </c>
+      <c r="J11">
+        <v>-0.0006283353863096166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.0738192757043241</v>
+        <v>0.08753808231645877</v>
       </c>
       <c r="C12">
-        <v>-0.04156836341378627</v>
+        <v>0.06364223112293423</v>
       </c>
       <c r="D12">
-        <v>0.03291292069809441</v>
+        <v>-0.02864265764636331</v>
       </c>
       <c r="E12">
-        <v>0.008372935762973254</v>
+        <v>0.03619500191775411</v>
       </c>
       <c r="F12">
-        <v>0.005617926749180993</v>
+        <v>-0.06207913647555212</v>
       </c>
       <c r="G12">
-        <v>0.1495584578755952</v>
+        <v>-0.01546240816169927</v>
       </c>
       <c r="H12">
-        <v>-0.04029094841798223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.08710862195036544</v>
+      </c>
+      <c r="I12">
+        <v>-0.07559596437071671</v>
+      </c>
+      <c r="J12">
+        <v>-0.02885338123513594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06184605939874861</v>
+        <v>0.04805570725252864</v>
       </c>
       <c r="C13">
-        <v>-0.006647747335380196</v>
+        <v>0.02599289376743512</v>
       </c>
       <c r="D13">
-        <v>0.02656390214518304</v>
+        <v>0.02768627535942155</v>
       </c>
       <c r="E13">
-        <v>0.01244870093437504</v>
+        <v>0.01301522699252027</v>
       </c>
       <c r="F13">
-        <v>-0.05361563542570923</v>
+        <v>0.01707679130664919</v>
       </c>
       <c r="G13">
-        <v>0.06629687506956555</v>
+        <v>-0.008732976197320557</v>
       </c>
       <c r="H13">
-        <v>0.01432385065247469</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.06796150109354275</v>
+      </c>
+      <c r="I13">
+        <v>-0.06112079216621922</v>
+      </c>
+      <c r="J13">
+        <v>-0.02833013836420284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.05317122652397109</v>
+        <v>0.03487905570380564</v>
       </c>
       <c r="C14">
-        <v>-0.006660441964453119</v>
+        <v>0.006081525364466742</v>
       </c>
       <c r="D14">
-        <v>0.04878455271517163</v>
+        <v>-0.009097796746591306</v>
       </c>
       <c r="E14">
-        <v>0.04595170609556264</v>
+        <v>0.002706599316606266</v>
       </c>
       <c r="F14">
-        <v>-0.02022407358828093</v>
+        <v>-0.01440131041970046</v>
       </c>
       <c r="G14">
-        <v>0.01684705841459174</v>
+        <v>-0.007598356415805635</v>
       </c>
       <c r="H14">
-        <v>0.1298545581367871</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.04551193242013254</v>
+      </c>
+      <c r="I14">
+        <v>-0.08142996374496229</v>
+      </c>
+      <c r="J14">
+        <v>0.06880350187023088</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.03697638394093401</v>
+        <v>0.02822615478785816</v>
       </c>
       <c r="C15">
-        <v>0.01081704211691833</v>
+        <v>0.01110824144116272</v>
       </c>
       <c r="D15">
-        <v>0.006421594925313075</v>
+        <v>0.01180900250299428</v>
       </c>
       <c r="E15">
-        <v>0.01945579589583501</v>
+        <v>0.01586607701002547</v>
       </c>
       <c r="F15">
-        <v>-0.001837443248932141</v>
+        <v>0.03272509745394014</v>
       </c>
       <c r="G15">
-        <v>0.005466920793046088</v>
+        <v>-0.007010829254317083</v>
       </c>
       <c r="H15">
-        <v>0.06608667478163732</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.03339227374839126</v>
+      </c>
+      <c r="I15">
+        <v>-0.02401638868032794</v>
+      </c>
+      <c r="J15">
+        <v>0.02932530831432494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.08219270123673252</v>
+        <v>0.09003846451583726</v>
       </c>
       <c r="C16">
-        <v>-0.06878511371406699</v>
+        <v>0.060143839433167</v>
       </c>
       <c r="D16">
-        <v>0.03940281352467694</v>
+        <v>-0.03908791214277587</v>
       </c>
       <c r="E16">
-        <v>0.01162478665841843</v>
+        <v>0.04634188448233927</v>
       </c>
       <c r="F16">
-        <v>-0.0498676183243624</v>
+        <v>-0.04499876932425973</v>
       </c>
       <c r="G16">
-        <v>0.1143170597513377</v>
+        <v>-0.002542031149116675</v>
       </c>
       <c r="H16">
-        <v>-0.04597034706179772</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.09491003334837969</v>
+      </c>
+      <c r="I16">
+        <v>-0.08917230035343819</v>
+      </c>
+      <c r="J16">
+        <v>0.01042040878275641</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1247,16 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1279,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1311,240 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.05596111342381866</v>
+        <v>0.05255823977853792</v>
       </c>
       <c r="C20">
-        <v>-0.01776829406921696</v>
+        <v>0.02563825025336965</v>
       </c>
       <c r="D20">
-        <v>0.02082057035107284</v>
+        <v>-0.03228406660591152</v>
       </c>
       <c r="E20">
-        <v>0.01761050291329685</v>
+        <v>0.005617098680108228</v>
       </c>
       <c r="F20">
-        <v>-0.007238447854347452</v>
+        <v>0.01148192376945503</v>
       </c>
       <c r="G20">
-        <v>0.1068139336381696</v>
+        <v>-0.002591896808504913</v>
       </c>
       <c r="H20">
-        <v>0.002732661017859379</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.03744723060281059</v>
+      </c>
+      <c r="I20">
+        <v>-0.05602731746608938</v>
+      </c>
+      <c r="J20">
+        <v>0.03738450948725894</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.02754872148831794</v>
+        <v>0.02302708298978017</v>
       </c>
       <c r="C21">
-        <v>-0.03155783062021873</v>
+        <v>0.005412569884448533</v>
       </c>
       <c r="D21">
-        <v>0.007825620877092224</v>
+        <v>-0.01049495681470574</v>
       </c>
       <c r="E21">
-        <v>0.004632694994805834</v>
+        <v>-0.03306242522386058</v>
       </c>
       <c r="F21">
-        <v>0.07584657642481979</v>
+        <v>0.006399803050159675</v>
       </c>
       <c r="G21">
-        <v>-0.1027297251969641</v>
+        <v>0.02710440245208929</v>
       </c>
       <c r="H21">
-        <v>0.0942756564060296</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.03221557500822247</v>
+      </c>
+      <c r="I21">
+        <v>-0.08553684982402635</v>
+      </c>
+      <c r="J21">
+        <v>-0.001549799234962126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.04144126352495699</v>
+        <v>0.03394871013492692</v>
       </c>
       <c r="C22">
-        <v>-0.01277289929507205</v>
+        <v>-0.007283556610460758</v>
       </c>
       <c r="D22">
-        <v>0.5335416123365377</v>
+        <v>-0.008101790013311306</v>
       </c>
       <c r="E22">
-        <v>-0.2198305315332519</v>
+        <v>0.137530301779127</v>
       </c>
       <c r="F22">
-        <v>-0.05339517537789815</v>
+        <v>0.6140322864846127</v>
       </c>
       <c r="G22">
-        <v>-0.3126541258169047</v>
+        <v>-0.07843687502328796</v>
       </c>
       <c r="H22">
-        <v>-0.08668572609496647</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.1990555180166097</v>
+      </c>
+      <c r="I22">
+        <v>0.1277327681037329</v>
+      </c>
+      <c r="J22">
+        <v>-0.01214797188155151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.04186335282415445</v>
+        <v>0.03412682814785786</v>
       </c>
       <c r="C23">
-        <v>-0.01356437167224563</v>
+        <v>-0.006982688943012051</v>
       </c>
       <c r="D23">
-        <v>0.5330535278953348</v>
+        <v>-0.008550670969502738</v>
       </c>
       <c r="E23">
-        <v>-0.2181453556516846</v>
+        <v>0.1392735021901151</v>
       </c>
       <c r="F23">
-        <v>-0.05343893241890228</v>
+        <v>0.6158321974738542</v>
       </c>
       <c r="G23">
-        <v>-0.3146560110848737</v>
+        <v>-0.07819896211846923</v>
       </c>
       <c r="H23">
-        <v>-0.08618442264879804</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.2003782023996349</v>
+      </c>
+      <c r="I23">
+        <v>0.1246680490915218</v>
+      </c>
+      <c r="J23">
+        <v>-0.01162369060545071</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.08507981977646312</v>
+        <v>0.09432391009961126</v>
       </c>
       <c r="C24">
-        <v>-0.04474195370527798</v>
+        <v>0.05780393713983682</v>
       </c>
       <c r="D24">
-        <v>0.03291322479239226</v>
+        <v>-0.03490012700643372</v>
       </c>
       <c r="E24">
-        <v>0.02956229609847491</v>
+        <v>0.03220129049781775</v>
       </c>
       <c r="F24">
-        <v>-0.0146134209020015</v>
+        <v>-0.04397288397914026</v>
       </c>
       <c r="G24">
-        <v>0.1185403219673593</v>
+        <v>-0.0193840782253805</v>
       </c>
       <c r="H24">
-        <v>-0.02127096165082082</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.09658010290497893</v>
+      </c>
+      <c r="I24">
+        <v>-0.07909429517345441</v>
+      </c>
+      <c r="J24">
+        <v>-0.0002186811297438411</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.07735935157312775</v>
+        <v>0.09333407074113027</v>
       </c>
       <c r="C25">
-        <v>-0.02141196454102747</v>
+        <v>0.03811681747359737</v>
       </c>
       <c r="D25">
-        <v>0.03390345919847193</v>
+        <v>-0.02616909524630787</v>
       </c>
       <c r="E25">
-        <v>0.0183414178476263</v>
+        <v>0.03447133878307879</v>
       </c>
       <c r="F25">
-        <v>0.009139802895577019</v>
+        <v>-0.06917006715867173</v>
       </c>
       <c r="G25">
-        <v>0.1229402028519537</v>
+        <v>-0.01644652423035563</v>
       </c>
       <c r="H25">
-        <v>-0.02508096179308743</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.09424142691831847</v>
+      </c>
+      <c r="I25">
+        <v>-0.0794505381485478</v>
+      </c>
+      <c r="J25">
+        <v>0.01395748226590834</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.05118490800125829</v>
+        <v>0.04187123455020461</v>
       </c>
       <c r="C26">
-        <v>-0.02339991279503517</v>
+        <v>-0.01078256415526503</v>
       </c>
       <c r="D26">
-        <v>0.02348623383384892</v>
+        <v>-0.02273736747907232</v>
       </c>
       <c r="E26">
-        <v>0.0518779314944567</v>
+        <v>0.001699440822825825</v>
       </c>
       <c r="F26">
-        <v>-0.04623782751921523</v>
+        <v>0.00371420056021603</v>
       </c>
       <c r="G26">
-        <v>0.05187707892225239</v>
+        <v>0.01710383410683727</v>
       </c>
       <c r="H26">
-        <v>0.06155005986493516</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.06168479861184363</v>
+      </c>
+      <c r="I26">
+        <v>-0.03603149545706159</v>
+      </c>
+      <c r="J26">
+        <v>0.05842204355000632</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1567,304 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.06199660809864453</v>
+        <v>0.08099830354326201</v>
       </c>
       <c r="C28">
-        <v>0.3065809058537046</v>
+        <v>-0.3044372659262671</v>
       </c>
       <c r="D28">
-        <v>-0.01253613241211114</v>
+        <v>0.09605524223120374</v>
       </c>
       <c r="E28">
-        <v>0.02445631008634324</v>
+        <v>0.01562004679796982</v>
       </c>
       <c r="F28">
-        <v>0.03513610906475408</v>
+        <v>-0.02852339934576156</v>
       </c>
       <c r="G28">
-        <v>-0.01695134460480096</v>
+        <v>-0.004172878800877098</v>
       </c>
       <c r="H28">
-        <v>-0.07313869037174434</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.03717036057033307</v>
+      </c>
+      <c r="I28">
+        <v>-0.03798152507529511</v>
+      </c>
+      <c r="J28">
+        <v>-0.002412242283879282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.0598651485699165</v>
+        <v>0.0359500728573191</v>
       </c>
       <c r="C29">
-        <v>0.002135399816762508</v>
+        <v>0.007466737676480298</v>
       </c>
       <c r="D29">
-        <v>0.05657332196266276</v>
+        <v>0.005687101770983885</v>
       </c>
       <c r="E29">
-        <v>0.02235750581443412</v>
+        <v>0.01037031873725243</v>
       </c>
       <c r="F29">
-        <v>-0.02873713160015156</v>
+        <v>-0.01976382654145715</v>
       </c>
       <c r="G29">
-        <v>0.02394405744886153</v>
+        <v>-0.0261800386072811</v>
       </c>
       <c r="H29">
-        <v>0.07475587692843495</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.07627325149331236</v>
+      </c>
+      <c r="I29">
+        <v>-0.07310600020179114</v>
+      </c>
+      <c r="J29">
+        <v>0.06357115005628181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1154711973659083</v>
+        <v>0.1180643082081476</v>
       </c>
       <c r="C30">
-        <v>0.0271035204887355</v>
+        <v>0.06230000885734423</v>
       </c>
       <c r="D30">
-        <v>0.2016844218813015</v>
+        <v>0.01283929340772364</v>
       </c>
       <c r="E30">
-        <v>0.01310258589475578</v>
+        <v>0.04123019257478312</v>
       </c>
       <c r="F30">
-        <v>0.0967661386768025</v>
+        <v>-0.02877772604601708</v>
       </c>
       <c r="G30">
-        <v>0.1904746017580046</v>
+        <v>0.02642352411654388</v>
       </c>
       <c r="H30">
-        <v>0.02059881567985891</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.1605268945060773</v>
+      </c>
+      <c r="I30">
+        <v>-0.07373856851666691</v>
+      </c>
+      <c r="J30">
+        <v>-0.2832603917986017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05623985926309006</v>
+        <v>0.03640150076630123</v>
       </c>
       <c r="C31">
-        <v>-0.02318904003053997</v>
+        <v>0.02384101617251269</v>
       </c>
       <c r="D31">
-        <v>0.006010738484123788</v>
+        <v>-0.02262716892016071</v>
       </c>
       <c r="E31">
-        <v>-0.01487114308008918</v>
+        <v>0.02314065909503498</v>
       </c>
       <c r="F31">
-        <v>-0.02815781914408257</v>
+        <v>0.0007854881926426018</v>
       </c>
       <c r="G31">
-        <v>0.01191330739736441</v>
+        <v>-0.00320428848026501</v>
       </c>
       <c r="H31">
-        <v>0.0258755352496459</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.011818590535053</v>
+      </c>
+      <c r="I31">
+        <v>-0.0412792298377583</v>
+      </c>
+      <c r="J31">
+        <v>0.06569227449497655</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.03386209239247197</v>
+        <v>0.05549159057948203</v>
       </c>
       <c r="C32">
-        <v>0.01066348942362973</v>
+        <v>0.004074872665590556</v>
       </c>
       <c r="D32">
-        <v>0.09785614666889057</v>
+        <v>-0.02112316220157152</v>
       </c>
       <c r="E32">
-        <v>-0.03452276891173162</v>
+        <v>0.0008595863854876666</v>
       </c>
       <c r="F32">
-        <v>-0.1148723664056261</v>
+        <v>-0.05354289364986582</v>
       </c>
       <c r="G32">
-        <v>0.02186058271744682</v>
+        <v>0.03971469146630724</v>
       </c>
       <c r="H32">
-        <v>0.03143933074689067</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.05627757565566772</v>
+      </c>
+      <c r="I32">
+        <v>-0.03528405451248907</v>
+      </c>
+      <c r="J32">
+        <v>-0.01478991305796053</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.1126087540313325</v>
+        <v>0.1064698721588218</v>
       </c>
       <c r="C33">
-        <v>-0.01195583518872969</v>
+        <v>0.05521905868307298</v>
       </c>
       <c r="D33">
-        <v>0.01824906314318313</v>
+        <v>-0.0004953760470922997</v>
       </c>
       <c r="E33">
-        <v>-0.02794460645527898</v>
+        <v>0.07671611668078289</v>
       </c>
       <c r="F33">
-        <v>-0.02388881400642567</v>
+        <v>-0.0435125421406641</v>
       </c>
       <c r="G33">
-        <v>0.06827010779553998</v>
+        <v>-0.003279789711734313</v>
       </c>
       <c r="H33">
-        <v>0.0627392758108186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.0752884603459491</v>
+      </c>
+      <c r="I33">
+        <v>-0.05106504612304864</v>
+      </c>
+      <c r="J33">
+        <v>0.01311078659384588</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.06902516177284956</v>
+        <v>0.08278919914329866</v>
       </c>
       <c r="C34">
-        <v>-0.04280475487297691</v>
+        <v>0.0476291674687163</v>
       </c>
       <c r="D34">
-        <v>0.0159589409356312</v>
+        <v>-0.03273386013118694</v>
       </c>
       <c r="E34">
-        <v>-0.0003893383165591585</v>
+        <v>0.03631499319647171</v>
       </c>
       <c r="F34">
-        <v>-0.0310059362113892</v>
+        <v>-0.04853397746290469</v>
       </c>
       <c r="G34">
-        <v>0.09466480162512037</v>
+        <v>-0.01260621110841204</v>
       </c>
       <c r="H34">
-        <v>-0.01443934955724147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.1090620394844216</v>
+      </c>
+      <c r="I34">
+        <v>-0.06770355958443562</v>
+      </c>
+      <c r="J34">
+        <v>0.004980380084312328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>-0.04290216383374095</v>
+        <v>0.02134675744829161</v>
       </c>
       <c r="C35">
-        <v>-0.00783820193637514</v>
+        <v>0.01221605735521224</v>
       </c>
       <c r="D35">
-        <v>-0.01061826734316591</v>
+        <v>0.006605429404945607</v>
       </c>
       <c r="E35">
-        <v>-0.00906947215562361</v>
+        <v>0.00864729260782187</v>
       </c>
       <c r="F35">
-        <v>0.03974297659541923</v>
+        <v>-0.01293168600929971</v>
       </c>
       <c r="G35">
-        <v>0.04880623299698595</v>
+        <v>-0.007561341542461879</v>
       </c>
       <c r="H35">
-        <v>-0.02262998672204178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.050094120681741</v>
+      </c>
+      <c r="I35">
+        <v>-0.03920644235073948</v>
+      </c>
+      <c r="J35">
+        <v>0.04870980593985719</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.03827466643111428</v>
+        <v>0.02826237391223694</v>
       </c>
       <c r="C36">
-        <v>-0.001315550582066506</v>
+        <v>0.006975789043895404</v>
       </c>
       <c r="D36">
-        <v>0.03218884121080526</v>
+        <v>0.005469455656757122</v>
       </c>
       <c r="E36">
-        <v>0.01874915685524428</v>
+        <v>0.002768230030990376</v>
       </c>
       <c r="F36">
-        <v>0.002403148114231858</v>
+        <v>0.009000643283162057</v>
       </c>
       <c r="G36">
-        <v>0.05755350468052339</v>
+        <v>0.01138481781693315</v>
       </c>
       <c r="H36">
-        <v>0.04160394698137612</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.0397859135284389</v>
+      </c>
+      <c r="I36">
+        <v>-0.04299813938805552</v>
+      </c>
+      <c r="J36">
+        <v>0.01738066781883929</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +1887,144 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05448432771845935</v>
+        <v>0.01856030344274067</v>
       </c>
       <c r="C38">
-        <v>-0.01726797193697445</v>
+        <v>0.01061553984055292</v>
       </c>
       <c r="D38">
-        <v>0.01720816539297456</v>
+        <v>-0.009812898625878579</v>
       </c>
       <c r="E38">
-        <v>0.01049912654062407</v>
+        <v>0.01408497093762328</v>
       </c>
       <c r="F38">
-        <v>-0.03312157763606267</v>
+        <v>0.01908005109668322</v>
       </c>
       <c r="G38">
-        <v>0.06097575528069131</v>
+        <v>-0.01640749025176877</v>
       </c>
       <c r="H38">
-        <v>-0.006057352773004389</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.009178106737656139</v>
+      </c>
+      <c r="I38">
+        <v>0.03708498066535352</v>
+      </c>
+      <c r="J38">
+        <v>0.005687082641202247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.1063232972893137</v>
+        <v>0.137748627075468</v>
       </c>
       <c r="C39">
-        <v>-0.04087467018676476</v>
+        <v>0.0893900452561714</v>
       </c>
       <c r="D39">
-        <v>0.06890555316338383</v>
+        <v>-0.0244478428443423</v>
       </c>
       <c r="E39">
-        <v>0.01344322128366095</v>
+        <v>0.05244376691595113</v>
       </c>
       <c r="F39">
-        <v>-0.03349262126120155</v>
+        <v>-0.1352437656763996</v>
       </c>
       <c r="G39">
-        <v>0.1484218820953798</v>
+        <v>-0.02272728991102846</v>
       </c>
       <c r="H39">
-        <v>-0.09496959106822309</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.1484041140372591</v>
+      </c>
+      <c r="I39">
+        <v>-0.05917452580601498</v>
+      </c>
+      <c r="J39">
+        <v>0.02929118612094998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.04650918150153328</v>
+        <v>0.01712351326462172</v>
       </c>
       <c r="C40">
-        <v>-0.0177819983919567</v>
+        <v>0.01629008687131402</v>
       </c>
       <c r="D40">
-        <v>0.07304972625772964</v>
+        <v>-0.0146064517217305</v>
       </c>
       <c r="E40">
-        <v>-0.0318158100001761</v>
+        <v>-0.0007423110574688584</v>
       </c>
       <c r="F40">
-        <v>0.007775907025500907</v>
+        <v>0.05900229081215229</v>
       </c>
       <c r="G40">
-        <v>0.2767060335946831</v>
+        <v>-0.001887324651031236</v>
       </c>
       <c r="H40">
-        <v>-0.09309073900311875</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.07262002978135261</v>
+      </c>
+      <c r="I40">
+        <v>-0.07763268566913513</v>
+      </c>
+      <c r="J40">
+        <v>-0.04392504994405738</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.04871326963267843</v>
+        <v>0.02713378073335016</v>
       </c>
       <c r="C41">
-        <v>-0.03001333168349058</v>
+        <v>-0.004744499426208299</v>
       </c>
       <c r="D41">
-        <v>-0.01348226888978836</v>
+        <v>-0.03161239226316168</v>
       </c>
       <c r="E41">
-        <v>0.01079463156994295</v>
+        <v>0.007753715974243689</v>
       </c>
       <c r="F41">
-        <v>-0.04113901615285746</v>
+        <v>-0.0149906326983028</v>
       </c>
       <c r="G41">
-        <v>0.0544815184706005</v>
+        <v>-0.009313816065605282</v>
       </c>
       <c r="H41">
-        <v>-0.009300594338273469</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.01598698191674065</v>
+      </c>
+      <c r="I41">
+        <v>-0.02180902378779501</v>
+      </c>
+      <c r="J41">
+        <v>0.03501096783902193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2047,80 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.07382295912360995</v>
+        <v>0.04088534794140562</v>
       </c>
       <c r="C43">
-        <v>-0.02417737555508307</v>
+        <v>0.001856252945719302</v>
       </c>
       <c r="D43">
-        <v>0.0257541716849284</v>
+        <v>-0.03994734993289685</v>
       </c>
       <c r="E43">
-        <v>0.01136832799286969</v>
+        <v>0.03801523494968348</v>
       </c>
       <c r="F43">
-        <v>-0.03927923185758592</v>
+        <v>-0.0003771714881523033</v>
       </c>
       <c r="G43">
-        <v>0.007607347244186601</v>
+        <v>-0.002227994922064418</v>
       </c>
       <c r="H43">
-        <v>-0.005850812797348981</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.01519756378912797</v>
+      </c>
+      <c r="I43">
+        <v>-0.02678036281738152</v>
+      </c>
+      <c r="J43">
+        <v>0.05896631090313458</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.07894465537696468</v>
+        <v>0.1242117590459559</v>
       </c>
       <c r="C44">
-        <v>-0.006389567434197992</v>
+        <v>0.07891696084042728</v>
       </c>
       <c r="D44">
-        <v>0.07630976850701968</v>
+        <v>0.005973777473616466</v>
       </c>
       <c r="E44">
-        <v>0.09700857429227543</v>
+        <v>0.04035507306433245</v>
       </c>
       <c r="F44">
-        <v>-0.07311731352792664</v>
+        <v>0.05599112466367243</v>
       </c>
       <c r="G44">
-        <v>0.07758577473989313</v>
+        <v>-0.09209241033267332</v>
       </c>
       <c r="H44">
-        <v>0.007460088788112544</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.2011835555578883</v>
+      </c>
+      <c r="I44">
+        <v>-0.09982062890054173</v>
+      </c>
+      <c r="J44">
+        <v>-0.1786820865929455</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2143,368 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.05323923377133245</v>
+        <v>0.0246405188957512</v>
       </c>
       <c r="C46">
-        <v>-0.03900603932932432</v>
+        <v>-0.00270224377685633</v>
       </c>
       <c r="D46">
-        <v>0.05142606874920123</v>
+        <v>-0.02434564664436161</v>
       </c>
       <c r="E46">
-        <v>-0.0003669621724983693</v>
+        <v>0.03515072199988137</v>
       </c>
       <c r="F46">
-        <v>-0.02203432111551323</v>
+        <v>0.02805995993801768</v>
       </c>
       <c r="G46">
-        <v>0.01752983424895785</v>
+        <v>-0.01985378619757926</v>
       </c>
       <c r="H46">
-        <v>0.07106199294360106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.04928834803398306</v>
+      </c>
+      <c r="I46">
+        <v>-0.04699954256421735</v>
+      </c>
+      <c r="J46">
+        <v>0.07150351533873338</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.05143419485277413</v>
+        <v>0.04284563082788444</v>
       </c>
       <c r="C47">
-        <v>-0.001349899989327706</v>
+        <v>-0.002654387452553162</v>
       </c>
       <c r="D47">
-        <v>0.0680943078849937</v>
+        <v>-0.01301155530586389</v>
       </c>
       <c r="E47">
-        <v>-0.03054672482010436</v>
+        <v>0.01315368963943135</v>
       </c>
       <c r="F47">
-        <v>0.01420502890659755</v>
+        <v>0.01388339017597006</v>
       </c>
       <c r="G47">
-        <v>0.004042082395449006</v>
+        <v>0.009147075224635473</v>
       </c>
       <c r="H47">
-        <v>0.009393475919939671</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.02591879385142508</v>
+      </c>
+      <c r="I47">
+        <v>-0.03681575194131457</v>
+      </c>
+      <c r="J47">
+        <v>0.04997401248622696</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.04298152688557591</v>
+        <v>0.03981446531542013</v>
       </c>
       <c r="C48">
-        <v>-0.001526556476597164</v>
+        <v>0.006651615173741449</v>
       </c>
       <c r="D48">
-        <v>0.03478349090216998</v>
+        <v>0.01085986899683243</v>
       </c>
       <c r="E48">
-        <v>-0.04177304383654389</v>
+        <v>0.01204026832784421</v>
       </c>
       <c r="F48">
-        <v>0.01448033844515473</v>
+        <v>-0.004633051428600235</v>
       </c>
       <c r="G48">
-        <v>0.04666654804065175</v>
+        <v>0.01298820479260165</v>
       </c>
       <c r="H48">
-        <v>-0.004363227757810549</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.05805917163572317</v>
+      </c>
+      <c r="I48">
+        <v>-0.05073702529605587</v>
+      </c>
+      <c r="J48">
+        <v>0.04391690902177251</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>-0.2388609318660541</v>
+        <v>0.228196913094138</v>
       </c>
       <c r="C49">
-        <v>-0.06536884247666819</v>
+        <v>0.001905468004704456</v>
       </c>
       <c r="D49">
-        <v>-0.08680550385251819</v>
+        <v>-0.07094525656516791</v>
       </c>
       <c r="E49">
-        <v>0.01493692340407663</v>
+        <v>-0.03272388136233521</v>
       </c>
       <c r="F49">
-        <v>0.07796600429325644</v>
+        <v>-0.02555099392724638</v>
       </c>
       <c r="G49">
-        <v>-0.1276835643205177</v>
+        <v>-0.06902868017204083</v>
       </c>
       <c r="H49">
-        <v>-0.05751322975567472</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.1267438348056289</v>
+      </c>
+      <c r="I49">
+        <v>0.1864195847990206</v>
+      </c>
+      <c r="J49">
+        <v>-0.1942941399081053</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.05574288768846605</v>
+        <v>0.04381493674125496</v>
       </c>
       <c r="C50">
-        <v>-0.01542955411057376</v>
+        <v>0.0193007057750706</v>
       </c>
       <c r="D50">
-        <v>0.0181526013575183</v>
+        <v>-0.02949946982173487</v>
       </c>
       <c r="E50">
-        <v>-0.02069101447658959</v>
+        <v>0.01562598353908267</v>
       </c>
       <c r="F50">
-        <v>-0.03616408472249184</v>
+        <v>-0.006926623242692892</v>
       </c>
       <c r="G50">
-        <v>0.007166270245082667</v>
+        <v>-0.004858331106708331</v>
       </c>
       <c r="H50">
-        <v>0.05330852481018804</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.04511709655193582</v>
+      </c>
+      <c r="I50">
+        <v>-0.03564539226354409</v>
+      </c>
+      <c r="J50">
+        <v>0.04575903502556759</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.03541385740524106</v>
+        <v>0.01589542402388491</v>
       </c>
       <c r="C51">
-        <v>-0.008812753803567684</v>
+        <v>-0.007313171812694448</v>
       </c>
       <c r="D51">
-        <v>0.004685387052474589</v>
+        <v>-0.00267992147175929</v>
       </c>
       <c r="E51">
-        <v>0.02231874623920578</v>
+        <v>0.01682967222414009</v>
       </c>
       <c r="F51">
-        <v>-0.02242534572623546</v>
+        <v>0.006370076033594141</v>
       </c>
       <c r="G51">
-        <v>-0.02021212872869449</v>
+        <v>-0.0220299663592883</v>
       </c>
       <c r="H51">
-        <v>-0.03328992322841949</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.02006269902618159</v>
+      </c>
+      <c r="I51">
+        <v>0.004546836952495712</v>
+      </c>
+      <c r="J51">
+        <v>-0.01717265561195587</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.09797429554508691</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.06972095746929594</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.02779067902243967</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.02496632777473291</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.02524496556901884</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.00223190252951448</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.06399421548572883</v>
+      </c>
+      <c r="I52">
+        <v>0.03171734497531138</v>
+      </c>
+      <c r="J52">
+        <v>0.1152911514915918</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1638408888398083</v>
+        <v>0.1577473480420994</v>
       </c>
       <c r="C53">
-        <v>0.003255961611468552</v>
+        <v>0.01973690365722314</v>
       </c>
       <c r="D53">
-        <v>-0.05060191962343814</v>
+        <v>0.002340646495905414</v>
       </c>
       <c r="E53">
-        <v>-0.05086818406888902</v>
+        <v>-0.01207509868770485</v>
       </c>
       <c r="F53">
-        <v>-0.1956334029514327</v>
+        <v>0.01065512396227384</v>
       </c>
       <c r="G53">
-        <v>-0.04871514350275109</v>
+        <v>-0.03117676949213617</v>
       </c>
       <c r="H53">
-        <v>0.0718338959806535</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.02872346414921486</v>
+      </c>
+      <c r="I53">
+        <v>0.1121332457530762</v>
+      </c>
+      <c r="J53">
+        <v>0.169067947118292</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.05516529793759044</v>
+        <v>0.05055813533960859</v>
       </c>
       <c r="C54">
-        <v>-0.004534997407504606</v>
+        <v>0.01162989012613155</v>
       </c>
       <c r="D54">
-        <v>0.04362594270387247</v>
+        <v>-0.01275516735100223</v>
       </c>
       <c r="E54">
-        <v>0.0034289752894372</v>
+        <v>0.01689566688983178</v>
       </c>
       <c r="F54">
-        <v>0.0004095042301293748</v>
+        <v>0.01959851747763855</v>
       </c>
       <c r="G54">
-        <v>0.05211026449277877</v>
+        <v>0.00947309420842357</v>
       </c>
       <c r="H54">
-        <v>0.07785270313944548</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.06438499706805763</v>
+      </c>
+      <c r="I54">
+        <v>-0.1346510158508225</v>
+      </c>
+      <c r="J54">
+        <v>0.04037515944241816</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09750266595519021</v>
+        <v>0.08967853572741194</v>
       </c>
       <c r="C55">
-        <v>-0.009016984102511744</v>
+        <v>0.02788416308268742</v>
       </c>
       <c r="D55">
-        <v>-0.0002481809026891694</v>
+        <v>0.01719604687332882</v>
       </c>
       <c r="E55">
-        <v>-0.02950643594640339</v>
+        <v>0.03644779955445934</v>
       </c>
       <c r="F55">
-        <v>-0.1332760383270735</v>
+        <v>-0.02070209852392528</v>
       </c>
       <c r="G55">
-        <v>0.001063014459685076</v>
+        <v>-0.007027007641015062</v>
       </c>
       <c r="H55">
-        <v>0.07358811982305469</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>3.50312997037664e-05</v>
+      </c>
+      <c r="I55">
+        <v>0.0164582496141675</v>
+      </c>
+      <c r="J55">
+        <v>0.1274339577778743</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1648407506854145</v>
+        <v>0.1620949905482533</v>
       </c>
       <c r="C56">
-        <v>0.000929446757291488</v>
+        <v>0.0341097031370042</v>
       </c>
       <c r="D56">
-        <v>-0.06095419049930929</v>
+        <v>-0.01402508909084912</v>
       </c>
       <c r="E56">
-        <v>-0.07758353114141885</v>
+        <v>0.01844237240116681</v>
       </c>
       <c r="F56">
-        <v>-0.1812001908970436</v>
+        <v>-0.02378789025965531</v>
       </c>
       <c r="G56">
-        <v>-0.02561912497924021</v>
+        <v>-0.02796733485225983</v>
       </c>
       <c r="H56">
-        <v>0.05752017579417961</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.02532259159232199</v>
+      </c>
+      <c r="I56">
+        <v>0.0548884823037721</v>
+      </c>
+      <c r="J56">
+        <v>0.1382935950664432</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2527,1424 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.01843588216478244</v>
+        <v>0.03461072584969366</v>
       </c>
       <c r="C58">
-        <v>-0.07959085418240977</v>
+        <v>0.01486651316105531</v>
       </c>
       <c r="D58">
-        <v>0.2166131672464671</v>
+        <v>-0.01864359680511175</v>
       </c>
       <c r="E58">
-        <v>-0.03928586411500618</v>
+        <v>0.01363877961604987</v>
       </c>
       <c r="F58">
-        <v>0.4171691222760642</v>
+        <v>0.07940333493153717</v>
       </c>
       <c r="G58">
-        <v>0.158413068765179</v>
+        <v>0.002223359541178355</v>
       </c>
       <c r="H58">
-        <v>-0.2664069571620615</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.09996353829905789</v>
+      </c>
+      <c r="I58">
+        <v>0.01326746634776456</v>
+      </c>
+      <c r="J58">
+        <v>0.03214915398914938</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.1498797528988111</v>
+        <v>0.1552204077348608</v>
       </c>
       <c r="C59">
-        <v>0.3830789033436941</v>
+        <v>-0.3013551650732667</v>
       </c>
       <c r="D59">
-        <v>-0.04536482129823873</v>
+        <v>0.08449266603952488</v>
       </c>
       <c r="E59">
-        <v>0.05788159036033677</v>
+        <v>0.02642280269801082</v>
       </c>
       <c r="F59">
-        <v>-0.06042174245814383</v>
+        <v>-0.04772339528359668</v>
       </c>
       <c r="G59">
-        <v>0.007640699213793594</v>
+        <v>-0.03214372191675713</v>
       </c>
       <c r="H59">
-        <v>-0.03048048812826114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.07042014503054307</v>
+      </c>
+      <c r="I59">
+        <v>-0.04249309615445025</v>
+      </c>
+      <c r="J59">
+        <v>0.003826238819009554</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.2762992528207278</v>
+        <v>0.2805261725148129</v>
       </c>
       <c r="C60">
-        <v>-0.05168783441575389</v>
+        <v>0.09624491892646976</v>
       </c>
       <c r="D60">
-        <v>-0.06020825512074677</v>
+        <v>-0.02086742856157925</v>
       </c>
       <c r="E60">
-        <v>0.0441964783987386</v>
+        <v>-0.09521624776954103</v>
       </c>
       <c r="F60">
-        <v>0.06974438688922638</v>
+        <v>-0.001260912499370656</v>
       </c>
       <c r="G60">
-        <v>-0.1402269926678104</v>
+        <v>-0.1255488323896445</v>
       </c>
       <c r="H60">
-        <v>-0.03464365523480819</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.1459732408116919</v>
+      </c>
+      <c r="I60">
+        <v>0.2063168153498268</v>
+      </c>
+      <c r="J60">
+        <v>-0.3626862039003248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.09428289486535653</v>
+        <v>0.1111959666818792</v>
       </c>
       <c r="C61">
-        <v>-0.02071366541701867</v>
+        <v>0.05718917539391934</v>
       </c>
       <c r="D61">
-        <v>0.0266136272486005</v>
+        <v>0.003627754804760797</v>
       </c>
       <c r="E61">
-        <v>0.01308593041893277</v>
+        <v>0.04172683607631524</v>
       </c>
       <c r="F61">
-        <v>-0.03781646990671637</v>
+        <v>-0.0791948028506632</v>
       </c>
       <c r="G61">
-        <v>0.06038631436262499</v>
+        <v>-0.02889129623713446</v>
       </c>
       <c r="H61">
-        <v>-0.0433894090455647</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.1294226769799116</v>
+      </c>
+      <c r="I61">
+        <v>-0.1281324907810827</v>
+      </c>
+      <c r="J61">
+        <v>0.05176778560850401</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>-0.1450485767325184</v>
+        <v>0.1597325693755816</v>
       </c>
       <c r="C62">
-        <v>-0.02855402355229</v>
+        <v>0.03368136498818924</v>
       </c>
       <c r="D62">
-        <v>-0.11924185742378</v>
+        <v>-0.005438761972642875</v>
       </c>
       <c r="E62">
-        <v>-0.07571899968955932</v>
+        <v>0.002072794138234163</v>
       </c>
       <c r="F62">
-        <v>-0.1633858628663628</v>
+        <v>-0.02041633920012533</v>
       </c>
       <c r="G62">
-        <v>-0.01645836264447894</v>
+        <v>-0.001766068790674654</v>
       </c>
       <c r="H62">
-        <v>0.08536731613290578</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.004429485570576124</v>
+      </c>
+      <c r="I62">
+        <v>0.0874387913857145</v>
+      </c>
+      <c r="J62">
+        <v>0.1433398341439079</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04405166109757495</v>
+        <v>0.04301993634696701</v>
       </c>
       <c r="C63">
-        <v>-0.01918165621436197</v>
+        <v>0.0086656595343569</v>
       </c>
       <c r="D63">
-        <v>0.004347601703254629</v>
+        <v>0.006440192234250039</v>
       </c>
       <c r="E63">
-        <v>-0.01787481005368219</v>
+        <v>0.02506926706032901</v>
       </c>
       <c r="F63">
-        <v>0.006440664856978125</v>
+        <v>-0.007810622871661262</v>
       </c>
       <c r="G63">
-        <v>0.03924758125872696</v>
+        <v>0.04018361410794947</v>
       </c>
       <c r="H63">
-        <v>0.1052947243180892</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.0389125591310359</v>
+      </c>
+      <c r="I63">
+        <v>-0.06549905952597247</v>
+      </c>
+      <c r="J63">
+        <v>0.04682576848646005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.1099853339778994</v>
+        <v>0.09793826212766098</v>
       </c>
       <c r="C64">
-        <v>-0.009393502799401649</v>
+        <v>0.01167962810317941</v>
       </c>
       <c r="D64">
-        <v>0.04317651763352776</v>
+        <v>-0.01431869802385356</v>
       </c>
       <c r="E64">
-        <v>0.03231602552594418</v>
+        <v>0.0002296679850663978</v>
       </c>
       <c r="F64">
-        <v>-0.002630941362601095</v>
+        <v>-0.001642436741938642</v>
       </c>
       <c r="G64">
-        <v>0.04989573257428957</v>
+        <v>-0.05349774233668581</v>
       </c>
       <c r="H64">
-        <v>0.02191636349005331</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.04477858940881702</v>
+      </c>
+      <c r="I64">
+        <v>-0.04449933772121672</v>
+      </c>
+      <c r="J64">
+        <v>-0.05900942280898452</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>-0.1119870677496374</v>
+        <v>0.1167059863929799</v>
       </c>
       <c r="C65">
-        <v>-0.03108415396157976</v>
+        <v>0.009591928772186073</v>
       </c>
       <c r="D65">
-        <v>0.02588309135441323</v>
+        <v>0.01744368346761168</v>
       </c>
       <c r="E65">
-        <v>0.002513112204847112</v>
+        <v>-0.0199557897919413</v>
       </c>
       <c r="F65">
-        <v>0.4369553697782588</v>
+        <v>0.006769273261854961</v>
       </c>
       <c r="G65">
-        <v>-0.09356559956036684</v>
+        <v>0.07299881296726053</v>
       </c>
       <c r="H65">
-        <v>0.5933374850652106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.01646099331790552</v>
+      </c>
+      <c r="I65">
+        <v>0.001615597219287519</v>
+      </c>
+      <c r="J65">
+        <v>-0.2103850173336903</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1552256907654445</v>
+        <v>0.1663201678239891</v>
       </c>
       <c r="C66">
-        <v>-0.04910352125601052</v>
+        <v>0.09842456256836782</v>
       </c>
       <c r="D66">
-        <v>0.02580862473910679</v>
+        <v>-0.03977751672764833</v>
       </c>
       <c r="E66">
-        <v>0.06298812054724422</v>
+        <v>0.05656510711699032</v>
       </c>
       <c r="F66">
-        <v>-0.1022083542480288</v>
+        <v>-0.1473850411730668</v>
       </c>
       <c r="G66">
-        <v>0.2711377147795969</v>
+        <v>-0.03711588067161992</v>
       </c>
       <c r="H66">
-        <v>-0.1462339653713122</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.1381204353671043</v>
+      </c>
+      <c r="I66">
+        <v>-0.05105473013249797</v>
+      </c>
+      <c r="J66">
+        <v>-0.001027654868167905</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.1091640180701358</v>
+        <v>0.08175582260671069</v>
       </c>
       <c r="C67">
-        <v>-0.03692167862337227</v>
+        <v>0.04500724078527417</v>
       </c>
       <c r="D67">
-        <v>0.001661654668010685</v>
+        <v>0.006940728396115883</v>
       </c>
       <c r="E67">
-        <v>0.03894976973668106</v>
+        <v>0.07392156314995145</v>
       </c>
       <c r="F67">
-        <v>-0.05670111013639815</v>
+        <v>0.0116917436797918</v>
       </c>
       <c r="G67">
-        <v>0.03667205621794915</v>
+        <v>-0.03416980628671842</v>
       </c>
       <c r="H67">
-        <v>-0.01082192664505635</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.0827547527806714</v>
+      </c>
+      <c r="I67">
+        <v>0.03097977914268068</v>
+      </c>
+      <c r="J67">
+        <v>-0.03169204788897954</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.03796885727573002</v>
+        <v>0.0696724533687114</v>
       </c>
       <c r="C68">
-        <v>0.2921039113607403</v>
+        <v>-0.2744310899966642</v>
       </c>
       <c r="D68">
-        <v>-0.007005612579022282</v>
+        <v>0.08993893175804081</v>
       </c>
       <c r="E68">
-        <v>-0.02038814963469705</v>
+        <v>0.01205491303910954</v>
       </c>
       <c r="F68">
-        <v>0.02334017356957017</v>
+        <v>-0.03270784012823098</v>
       </c>
       <c r="G68">
-        <v>-0.01353713138419022</v>
+        <v>0.01127535928588043</v>
       </c>
       <c r="H68">
-        <v>0.02189984601786205</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.04174758675018961</v>
+      </c>
+      <c r="I68">
+        <v>-0.04074061236547628</v>
+      </c>
+      <c r="J68">
+        <v>-0.01698384878463734</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.05039208006916494</v>
+        <v>0.03934042581694751</v>
       </c>
       <c r="C69">
-        <v>-0.01020008390309355</v>
+        <v>0.006484066959682924</v>
       </c>
       <c r="D69">
-        <v>-0.007878673726332828</v>
+        <v>0.01033742563051683</v>
       </c>
       <c r="E69">
-        <v>-0.036676959578142</v>
+        <v>0.0258105038970836</v>
       </c>
       <c r="F69">
-        <v>0.008334581469218973</v>
+        <v>0.001992297944474833</v>
       </c>
       <c r="G69">
-        <v>0.02067206667591767</v>
+        <v>-0.004878746287332026</v>
       </c>
       <c r="H69">
-        <v>0.006847735088368927</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.01282374094482555</v>
+      </c>
+      <c r="I69">
+        <v>0.003095337526364892</v>
+      </c>
+      <c r="J69">
+        <v>0.02534255686801105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>-0.08168113046673302</v>
+        <v>0.04003708054174047</v>
       </c>
       <c r="C70">
-        <v>-0.01149178608336945</v>
+        <v>-0.003904964145168501</v>
       </c>
       <c r="D70">
-        <v>-0.004122069501776863</v>
+        <v>0.01883008810366788</v>
       </c>
       <c r="E70">
-        <v>0.06249972194530964</v>
+        <v>0.02811606882437315</v>
       </c>
       <c r="F70">
-        <v>-0.01488252358839855</v>
+        <v>-0.02519265935425642</v>
       </c>
       <c r="G70">
-        <v>-0.04308546752899735</v>
+        <v>-0.05885446646043707</v>
       </c>
       <c r="H70">
-        <v>-0.03971770145289131</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.01997944473009495</v>
+      </c>
+      <c r="I70">
+        <v>-0.006508412097296633</v>
+      </c>
+      <c r="J70">
+        <v>0.04120124686331179</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.04833421060800858</v>
+        <v>0.08247704881305443</v>
       </c>
       <c r="C71">
-        <v>0.2998339561262605</v>
+        <v>-0.289441070331546</v>
       </c>
       <c r="D71">
-        <v>-0.00223761775177975</v>
+        <v>0.09408187091364541</v>
       </c>
       <c r="E71">
-        <v>0.002748353547103577</v>
+        <v>0.0136762487547957</v>
       </c>
       <c r="F71">
-        <v>0.009587108309915743</v>
+        <v>-0.02555815891693615</v>
       </c>
       <c r="G71">
-        <v>0.01423262205626659</v>
+        <v>-0.01510796092417712</v>
       </c>
       <c r="H71">
-        <v>0.0009525649456453302</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.04521872951486142</v>
+      </c>
+      <c r="I71">
+        <v>-0.03554017780444307</v>
+      </c>
+      <c r="J71">
+        <v>-0.03691841469833194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1309480045760256</v>
+        <v>0.1376237115349943</v>
       </c>
       <c r="C72">
-        <v>0.01798113572120974</v>
+        <v>-0.01745623707295013</v>
       </c>
       <c r="D72">
-        <v>-0.08596160057322723</v>
+        <v>-0.01516274182907829</v>
       </c>
       <c r="E72">
-        <v>-0.1124642136251131</v>
+        <v>0.01765493921847769</v>
       </c>
       <c r="F72">
-        <v>0.02170213694257839</v>
+        <v>-0.01417142268027487</v>
       </c>
       <c r="G72">
-        <v>0.08825709509270964</v>
+        <v>0.04647078967487051</v>
       </c>
       <c r="H72">
-        <v>0.1184877160094853</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.01620482794004709</v>
+      </c>
+      <c r="I72">
+        <v>-0.001337420087528324</v>
+      </c>
+      <c r="J72">
+        <v>0.02513914612349218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2802528763019537</v>
+        <v>0.2455965975697116</v>
       </c>
       <c r="C73">
-        <v>-0.1366346907408215</v>
+        <v>0.05080055663174989</v>
       </c>
       <c r="D73">
-        <v>-0.153941477692474</v>
+        <v>-0.04954164685378622</v>
       </c>
       <c r="E73">
-        <v>0.1033281772177001</v>
+        <v>0.02374009379639062</v>
       </c>
       <c r="F73">
-        <v>0.2747752795119273</v>
+        <v>-0.07890379284216797</v>
       </c>
       <c r="G73">
-        <v>-0.2650111518660438</v>
+        <v>-0.1892381270143789</v>
       </c>
       <c r="H73">
-        <v>-0.2652174609538644</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.2281946413272764</v>
+      </c>
+      <c r="I73">
+        <v>0.3206820542464639</v>
+      </c>
+      <c r="J73">
+        <v>-0.2389808904428464</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1001780829591742</v>
+        <v>0.1084027100769393</v>
       </c>
       <c r="C74">
-        <v>-0.03195492249079503</v>
+        <v>0.02430956689637364</v>
       </c>
       <c r="D74">
-        <v>-0.01777757394107721</v>
+        <v>-0.0285370403850836</v>
       </c>
       <c r="E74">
-        <v>-0.0180126779750071</v>
+        <v>0.02483331257894657</v>
       </c>
       <c r="F74">
-        <v>-0.09969374091076266</v>
+        <v>-0.00927885995435474</v>
       </c>
       <c r="G74">
-        <v>-0.03649076427573428</v>
+        <v>-0.01005149452120301</v>
       </c>
       <c r="H74">
-        <v>0.03535122154613808</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.04718973803149506</v>
+      </c>
+      <c r="I74">
+        <v>0.07588603226411185</v>
+      </c>
+      <c r="J74">
+        <v>0.1074300513061862</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.09347846302601877</v>
+        <v>0.1184400088914632</v>
       </c>
       <c r="C75">
-        <v>-0.01850178729260998</v>
+        <v>0.03665054439316667</v>
       </c>
       <c r="D75">
-        <v>-0.04169763271203793</v>
+        <v>-0.02203250723521401</v>
       </c>
       <c r="E75">
-        <v>-0.07402717025428643</v>
+        <v>0.01902566939635546</v>
       </c>
       <c r="F75">
-        <v>-0.08476139403295178</v>
+        <v>-0.003285942429018731</v>
       </c>
       <c r="G75">
-        <v>-0.05634768704617936</v>
+        <v>0.02179197857394649</v>
       </c>
       <c r="H75">
-        <v>0.007272250635927327</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.006006270255338015</v>
+      </c>
+      <c r="I75">
+        <v>0.03621709790382764</v>
+      </c>
+      <c r="J75">
+        <v>0.1390134024125227</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.1413528335598842</v>
+        <v>0.04640674934060861</v>
       </c>
       <c r="C76">
-        <v>-0.02604343328606789</v>
+        <v>0.001753756514203984</v>
       </c>
       <c r="D76">
-        <v>0.008535299903126825</v>
+        <v>-0.01348204202634496</v>
       </c>
       <c r="E76">
-        <v>-0.05992810761205095</v>
+        <v>0.03299028605166841</v>
       </c>
       <c r="F76">
-        <v>-0.2122346214457072</v>
+        <v>0.01109581592801586</v>
       </c>
       <c r="G76">
-        <v>-0.09681851229086695</v>
+        <v>-0.0278151071667005</v>
       </c>
       <c r="H76">
-        <v>0.04581336691295238</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.04329407110739031</v>
+      </c>
+      <c r="I76">
+        <v>0.02823332421936254</v>
+      </c>
+      <c r="J76">
+        <v>0.08096214798538931</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.07917731872512355</v>
+        <v>0.08234482113719505</v>
       </c>
       <c r="C77">
-        <v>0.01062182898878913</v>
+        <v>0.07957328904097308</v>
       </c>
       <c r="D77">
-        <v>0.09660167221857223</v>
+        <v>-0.01713615211569756</v>
       </c>
       <c r="E77">
-        <v>0.1122077672722501</v>
+        <v>-0.009006084839201785</v>
       </c>
       <c r="F77">
-        <v>0.1821138029146286</v>
+        <v>0.004767938309831894</v>
       </c>
       <c r="G77">
-        <v>0.1725205231076565</v>
+        <v>-0.04314922893276477</v>
       </c>
       <c r="H77">
-        <v>-0.1343032740408581</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.03082975891800925</v>
+      </c>
+      <c r="I77">
+        <v>-0.1985780098689675</v>
+      </c>
+      <c r="J77">
+        <v>-0.3086935938580807</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.2272687327736227</v>
+        <v>0.1363663778276069</v>
       </c>
       <c r="C78">
-        <v>-0.04150429296222374</v>
+        <v>0.003354828183490631</v>
       </c>
       <c r="D78">
-        <v>0.2234215330696028</v>
+        <v>-0.162321019659292</v>
       </c>
       <c r="E78">
-        <v>0.05118501476277335</v>
+        <v>0.218272897160516</v>
       </c>
       <c r="F78">
-        <v>0.03229759524113385</v>
+        <v>0.2688133003090822</v>
       </c>
       <c r="G78">
-        <v>0.1424597670234738</v>
+        <v>0.1624554194139297</v>
       </c>
       <c r="H78">
-        <v>0.07595146184711986</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.6373970771663158</v>
+      </c>
+      <c r="I78">
+        <v>-0.5274556887376265</v>
+      </c>
+      <c r="J78">
+        <v>0.0580049167414048</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>-0.1375325233692022</v>
+        <v>0.1413940194747327</v>
       </c>
       <c r="C79">
-        <v>-0.007959412112277965</v>
+        <v>0.03114377053982974</v>
       </c>
       <c r="D79">
-        <v>-0.02141748273785249</v>
+        <v>-0.04713247349211207</v>
       </c>
       <c r="E79">
-        <v>-0.04698094574773493</v>
+        <v>0.00351678688095427</v>
       </c>
       <c r="F79">
-        <v>-0.1125972951915863</v>
+        <v>-0.01596477843863038</v>
       </c>
       <c r="G79">
-        <v>0.006385432001704204</v>
+        <v>-0.01467282253669669</v>
       </c>
       <c r="H79">
-        <v>0.06410692155736664</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.03542885266305996</v>
+      </c>
+      <c r="I79">
+        <v>0.05779444160384868</v>
+      </c>
+      <c r="J79">
+        <v>0.1087473054311947</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.03551310500502075</v>
+        <v>0.07227574547590382</v>
       </c>
       <c r="C80">
-        <v>-0.002956108711339064</v>
+        <v>0.05555710175667559</v>
       </c>
       <c r="D80">
-        <v>-0.02373227395498631</v>
+        <v>0.01154745841326502</v>
       </c>
       <c r="E80">
-        <v>0.04570776525335357</v>
+        <v>0.02883290665295739</v>
       </c>
       <c r="F80">
-        <v>0.02678467091519937</v>
+        <v>-0.05794667162098339</v>
       </c>
       <c r="G80">
-        <v>0.04216064622379788</v>
+        <v>-0.00195945371672262</v>
       </c>
       <c r="H80">
-        <v>0.116814101860543</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.03427981504631091</v>
+      </c>
+      <c r="I80">
+        <v>-0.06813836825708774</v>
+      </c>
+      <c r="J80">
+        <v>0.1486687842380869</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1107886895294649</v>
+        <v>0.140112783455896</v>
       </c>
       <c r="C81">
-        <v>0.003037369995789623</v>
+        <v>0.03947939159927925</v>
       </c>
       <c r="D81">
-        <v>-0.01516609499906277</v>
+        <v>-0.03468497304424195</v>
       </c>
       <c r="E81">
-        <v>-0.02644386968165939</v>
+        <v>0.02796315873695608</v>
       </c>
       <c r="F81">
-        <v>-0.1315194970633575</v>
+        <v>-0.001777305975110756</v>
       </c>
       <c r="G81">
-        <v>-0.04922226338362655</v>
+        <v>-0.007668760283446626</v>
       </c>
       <c r="H81">
-        <v>-0.0002314851322548307</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.03338124135857728</v>
+      </c>
+      <c r="I81">
+        <v>0.01417605489615424</v>
+      </c>
+      <c r="J81">
+        <v>0.1831798562912816</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>-0.1150357397160769</v>
+        <v>0.1584862475223324</v>
       </c>
       <c r="C82">
-        <v>-0.02114077852244017</v>
+        <v>0.0561543780114777</v>
       </c>
       <c r="D82">
-        <v>-0.01601569680804015</v>
+        <v>-0.001331452186901348</v>
       </c>
       <c r="E82">
-        <v>0.03388569532149384</v>
+        <v>0.009852553153933952</v>
       </c>
       <c r="F82">
-        <v>-0.2369980721353437</v>
+        <v>-0.03989944299020434</v>
       </c>
       <c r="G82">
-        <v>-0.02175142587716945</v>
+        <v>-0.04906907329888541</v>
       </c>
       <c r="H82">
-        <v>0.05108263955499825</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.02860056143939418</v>
+      </c>
+      <c r="I82">
+        <v>0.0978989070783345</v>
+      </c>
+      <c r="J82">
+        <v>0.2327613281759564</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.1132692662409246</v>
+        <v>0.08875623309555486</v>
       </c>
       <c r="C83">
-        <v>-0.04783443612252108</v>
+        <v>0.04890081527449798</v>
       </c>
       <c r="D83">
-        <v>-0.003791637801259385</v>
+        <v>-0.005047240142121434</v>
       </c>
       <c r="E83">
-        <v>0.09910793056351615</v>
+        <v>-0.02822093004588482</v>
       </c>
       <c r="F83">
-        <v>0.02660061875085445</v>
+        <v>0.03092470518003475</v>
       </c>
       <c r="G83">
-        <v>0.06858997568164438</v>
+        <v>0.01492478784575325</v>
       </c>
       <c r="H83">
-        <v>-0.09146160951481919</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.02871180061565231</v>
+      </c>
+      <c r="I83">
+        <v>-0.09592915043256674</v>
+      </c>
+      <c r="J83">
+        <v>0.01289739971171427</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.05005610797403202</v>
+        <v>0.06427623554369033</v>
       </c>
       <c r="C84">
-        <v>-0.02882970113816481</v>
+        <v>0.01969529309937977</v>
       </c>
       <c r="D84">
-        <v>0.01754568925911724</v>
+        <v>0.009092778750397185</v>
       </c>
       <c r="E84">
-        <v>-0.04767306321585724</v>
+        <v>-0.02621237515070863</v>
       </c>
       <c r="F84">
-        <v>-0.06133122057594126</v>
+        <v>-0.03294504734954396</v>
       </c>
       <c r="G84">
-        <v>-0.03116515388263535</v>
+        <v>-0.04026486087866758</v>
       </c>
       <c r="H84">
-        <v>0.01666964299609127</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.004817240446211636</v>
+      </c>
+      <c r="I84">
+        <v>-0.01272765796818398</v>
+      </c>
+      <c r="J84">
+        <v>-0.02618657900943106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.1072910733993583</v>
+        <v>0.1251388024200012</v>
       </c>
       <c r="C85">
-        <v>-0.01279313100064557</v>
+        <v>0.02468752950725682</v>
       </c>
       <c r="D85">
-        <v>-0.03623953868835168</v>
+        <v>-0.01914127469809262</v>
       </c>
       <c r="E85">
-        <v>-0.07775856387247107</v>
+        <v>0.01043277457733062</v>
       </c>
       <c r="F85">
-        <v>-0.1400165169813885</v>
+        <v>-0.006970471725599794</v>
       </c>
       <c r="G85">
-        <v>0.004955971019171871</v>
+        <v>-0.01499518829068165</v>
       </c>
       <c r="H85">
-        <v>0.1006109427179028</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.02224949219447234</v>
+      </c>
+      <c r="I85">
+        <v>0.03500534690066303</v>
+      </c>
+      <c r="J85">
+        <v>0.1262264626896129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.06911047862113059</v>
+        <v>0.1167751322892858</v>
       </c>
       <c r="C86">
-        <v>-0.0161511730767993</v>
+        <v>-0.06688945001231464</v>
       </c>
       <c r="D86">
-        <v>0.08357456467464892</v>
+        <v>-0.3265775644980384</v>
       </c>
       <c r="E86">
-        <v>0.107669535870051</v>
+        <v>-0.8676709532845489</v>
       </c>
       <c r="F86">
-        <v>-0.03021305866906729</v>
+        <v>0.1800532137703974</v>
       </c>
       <c r="G86">
-        <v>0.003686469900643844</v>
+        <v>0.09259219113367374</v>
       </c>
       <c r="H86">
-        <v>0.2774963867715452</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.07297229296790105</v>
+      </c>
+      <c r="I86">
+        <v>-0.1375888709695897</v>
+      </c>
+      <c r="J86">
+        <v>0.04393593054006589</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.1077393258895207</v>
+        <v>0.1117266347630529</v>
       </c>
       <c r="C87">
-        <v>-0.05593202308354024</v>
+        <v>0.0985531750212193</v>
       </c>
       <c r="D87">
-        <v>0.06216219257618358</v>
+        <v>0.05267735018414947</v>
       </c>
       <c r="E87">
-        <v>0.02452344939540871</v>
+        <v>0.001167678532254403</v>
       </c>
       <c r="F87">
-        <v>0.01662805066758909</v>
+        <v>0.03452665826284025</v>
       </c>
       <c r="G87">
-        <v>0.1275982088011595</v>
+        <v>-0.02925833474357292</v>
       </c>
       <c r="H87">
-        <v>0.01539238302587888</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.005513986492445905</v>
+      </c>
+      <c r="I87">
+        <v>-0.2269408724356625</v>
+      </c>
+      <c r="J87">
+        <v>-0.2234663654150484</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.07051685633313229</v>
+        <v>0.05521154627572589</v>
       </c>
       <c r="C88">
-        <v>-0.04067077768032366</v>
+        <v>0.02705145829368228</v>
       </c>
       <c r="D88">
-        <v>0.02442590929865709</v>
+        <v>-0.02804404047728416</v>
       </c>
       <c r="E88">
-        <v>0.0265019145461284</v>
+        <v>0.03252371988583111</v>
       </c>
       <c r="F88">
-        <v>-0.03176394693623549</v>
+        <v>-0.05161049531834671</v>
       </c>
       <c r="G88">
-        <v>0.04871044625857767</v>
+        <v>-0.01646436470054013</v>
       </c>
       <c r="H88">
-        <v>-0.003246171086357936</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.02294253920261046</v>
+      </c>
+      <c r="I88">
+        <v>-0.0399155779334936</v>
+      </c>
+      <c r="J88">
+        <v>0.05920966071753123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.09340744158529433</v>
+        <v>0.1305591688412923</v>
       </c>
       <c r="C89">
-        <v>0.386748560921338</v>
+        <v>-0.3635810874772378</v>
       </c>
       <c r="D89">
-        <v>0.0325005746870214</v>
+        <v>0.1078316591093766</v>
       </c>
       <c r="E89">
-        <v>0.05045356712825928</v>
+        <v>0.006490595839044224</v>
       </c>
       <c r="F89">
-        <v>0.02304389837763412</v>
+        <v>0.04287030828430775</v>
       </c>
       <c r="G89">
-        <v>-0.003027503326788988</v>
+        <v>-0.04718478943981926</v>
       </c>
       <c r="H89">
-        <v>-0.02420306830762272</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.008484000816630694</v>
+      </c>
+      <c r="I89">
+        <v>-0.02013532811962798</v>
+      </c>
+      <c r="J89">
+        <v>-0.01105292808666936</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.07233306255636161</v>
+        <v>0.09863175327949768</v>
       </c>
       <c r="C90">
-        <v>0.2977448968785613</v>
+        <v>-0.2867934299445029</v>
       </c>
       <c r="D90">
-        <v>0.04305410071488139</v>
+        <v>0.08609596962741822</v>
       </c>
       <c r="E90">
-        <v>0.01672240061857405</v>
+        <v>0.002865728764643342</v>
       </c>
       <c r="F90">
-        <v>0.02566746490038344</v>
+        <v>-0.02752817247083337</v>
       </c>
       <c r="G90">
-        <v>0.02981410737255268</v>
+        <v>-0.02577266453537596</v>
       </c>
       <c r="H90">
-        <v>-0.03205954635799063</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.06202472114514825</v>
+      </c>
+      <c r="I90">
+        <v>-0.03834914806238778</v>
+      </c>
+      <c r="J90">
+        <v>-0.04120610628687136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.08236069880729502</v>
+        <v>0.08774371287837748</v>
       </c>
       <c r="C91">
-        <v>-0.02563231687772516</v>
+        <v>0.02246946974947677</v>
       </c>
       <c r="D91">
-        <v>-0.01716318734118006</v>
+        <v>-0.02227205874824134</v>
       </c>
       <c r="E91">
-        <v>-0.01589964228669895</v>
+        <v>-0.005848570889577062</v>
       </c>
       <c r="F91">
-        <v>-0.06085540110756009</v>
+        <v>0.001075464855581647</v>
       </c>
       <c r="G91">
-        <v>-0.06412089353662334</v>
+        <v>-0.02119634539418352</v>
       </c>
       <c r="H91">
-        <v>-0.019238596597616</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>3.621012668811757e-06</v>
+      </c>
+      <c r="I91">
+        <v>0.03312553271856207</v>
+      </c>
+      <c r="J91">
+        <v>0.08982212538596025</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.06661319265817056</v>
+        <v>0.110485344854445</v>
       </c>
       <c r="C92">
-        <v>0.3566447791051146</v>
+        <v>-0.3234944001570194</v>
       </c>
       <c r="D92">
-        <v>0.03239185252361734</v>
+        <v>0.1192558546945512</v>
       </c>
       <c r="E92">
-        <v>0.01846593296588361</v>
+        <v>-0.0006588729192333198</v>
       </c>
       <c r="F92">
-        <v>0.06531586542946806</v>
+        <v>0.0167728526228134</v>
       </c>
       <c r="G92">
-        <v>-0.008785103636710766</v>
+        <v>-0.001527508241245699</v>
       </c>
       <c r="H92">
-        <v>-0.04529600080447915</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.056489155463961</v>
+      </c>
+      <c r="I92">
+        <v>-0.05189371307801727</v>
+      </c>
+      <c r="J92">
+        <v>0.02016170646814047</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.08148068652980603</v>
+        <v>0.1000105560324226</v>
       </c>
       <c r="C93">
-        <v>0.3045268370837117</v>
+        <v>-0.3132713692382218</v>
       </c>
       <c r="D93">
-        <v>0.01399509748656527</v>
+        <v>0.09320695060429535</v>
       </c>
       <c r="E93">
-        <v>0.002306483050365272</v>
+        <v>-0.01107289048160426</v>
       </c>
       <c r="F93">
-        <v>0.03085407632309262</v>
+        <v>-0.04411232993727093</v>
       </c>
       <c r="G93">
-        <v>-0.02908141859695339</v>
+        <v>-0.0300319574723424</v>
       </c>
       <c r="H93">
-        <v>0.01199859609714091</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.0300670219206071</v>
+      </c>
+      <c r="I93">
+        <v>-0.03760232005684457</v>
+      </c>
+      <c r="J93">
+        <v>-0.007555693676247062</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.09339504405204495</v>
+        <v>0.1369799864697696</v>
       </c>
       <c r="C94">
-        <v>-0.04494258317225112</v>
+        <v>0.04001988950931868</v>
       </c>
       <c r="D94">
-        <v>-0.01123549328653697</v>
+        <v>-0.02293229207124719</v>
       </c>
       <c r="E94">
-        <v>-0.04627028729768715</v>
+        <v>0.05447937420936388</v>
       </c>
       <c r="F94">
-        <v>-0.1125363085441595</v>
+        <v>0.01204008627396582</v>
       </c>
       <c r="G94">
-        <v>-0.06562555683682615</v>
+        <v>-0.007009580350448298</v>
       </c>
       <c r="H94">
-        <v>0.03764068028707762</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.005961221681648159</v>
+      </c>
+      <c r="I94">
+        <v>0.06088061912026748</v>
+      </c>
+      <c r="J94">
+        <v>0.1293529323472669</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1298318571954002</v>
+        <v>0.1204423534518839</v>
       </c>
       <c r="C95">
-        <v>-0.07166292050129723</v>
+        <v>0.04651106036641154</v>
       </c>
       <c r="D95">
-        <v>0.09525376276623611</v>
+        <v>-0.03290404867943823</v>
       </c>
       <c r="E95">
-        <v>0.06141149070137471</v>
+        <v>0.03196766198415917</v>
       </c>
       <c r="F95">
-        <v>0.09246239125291007</v>
+        <v>0.02824972940723971</v>
       </c>
       <c r="G95">
-        <v>0.1017329038286778</v>
+        <v>-0.03805256701431035</v>
       </c>
       <c r="H95">
-        <v>0.01319544338799184</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.05699922748557657</v>
+      </c>
+      <c r="I95">
+        <v>-0.1116423340888983</v>
+      </c>
+      <c r="J95">
+        <v>-0.03880094190739951</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.01188818746274195</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.001329967706475712</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.0004692694501726588</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.004067082557158087</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.006723840287477865</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.005490261384724256</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.00457217007115389</v>
+      </c>
+      <c r="I96">
+        <v>-0.02703221372558897</v>
+      </c>
+      <c r="J96">
+        <v>-0.01842971538019084</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>-0.1483876572825853</v>
+        <v>0.1676504742035015</v>
       </c>
       <c r="C97">
-        <v>0.04016251694914603</v>
+        <v>-0.02224432193082328</v>
       </c>
       <c r="D97">
-        <v>-0.2298144655816613</v>
+        <v>-0.03394766467412519</v>
       </c>
       <c r="E97">
-        <v>-0.8370800871763935</v>
+        <v>0.1117690134711491</v>
       </c>
       <c r="F97">
-        <v>0.1757580373889144</v>
+        <v>-0.001817443994374848</v>
       </c>
       <c r="G97">
-        <v>0.1808360418519002</v>
+        <v>0.9084877265030803</v>
       </c>
       <c r="H97">
-        <v>-0.05434557676211467</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.1115661781941743</v>
+      </c>
+      <c r="I97">
+        <v>0.217200426659343</v>
+      </c>
+      <c r="J97">
+        <v>-0.1027204486167363</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.3309855133238934</v>
+        <v>0.2756806966949253</v>
       </c>
       <c r="C98">
-        <v>-0.07101267766845132</v>
+        <v>0.03657769379117354</v>
       </c>
       <c r="D98">
-        <v>-0.2241329565481319</v>
+        <v>0.02724622193905046</v>
       </c>
       <c r="E98">
-        <v>0.1574935503666892</v>
+        <v>-0.09488154687710179</v>
       </c>
       <c r="F98">
-        <v>0.09598967025032933</v>
+        <v>0.07724997759512531</v>
       </c>
       <c r="G98">
-        <v>-0.3129101928918863</v>
+        <v>-0.0201119447513196</v>
       </c>
       <c r="H98">
-        <v>-0.2648897483072754</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.3024907459574474</v>
+      </c>
+      <c r="I98">
+        <v>0.2077569857086563</v>
+      </c>
+      <c r="J98">
+        <v>0.2264263714495682</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>-0.08749081052219168</v>
+        <v>0.0596526599648363</v>
       </c>
       <c r="C99">
-        <v>-0.01383961086686956</v>
+        <v>-0.004404849026545489</v>
       </c>
       <c r="D99">
-        <v>-0.01454622327030275</v>
+        <v>-0.01740595837552643</v>
       </c>
       <c r="E99">
-        <v>0.002636764007380977</v>
+        <v>0.04928863182085141</v>
       </c>
       <c r="F99">
-        <v>-0.01900977002042244</v>
+        <v>0.006256920494915972</v>
       </c>
       <c r="G99">
-        <v>0.009825889435880768</v>
+        <v>-0.0166253631625705</v>
       </c>
       <c r="H99">
-        <v>-0.06333776921868087</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.02385179398105171</v>
+      </c>
+      <c r="I99">
+        <v>0.01881426577427741</v>
+      </c>
+      <c r="J99">
+        <v>0.02444277286789429</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.08802320957475362</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.280270709959158</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.8648106614926149</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.2625090350972134</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.1147594330872905</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.08916928672675366</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.07883884853125715</v>
+      </c>
+      <c r="I100">
+        <v>-0.09206964771126225</v>
+      </c>
+      <c r="J100">
+        <v>0.04098057671400112</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.06006980254541244</v>
+        <v>0.03576699071336881</v>
       </c>
       <c r="C101">
-        <v>0.002603572671465095</v>
+        <v>0.007784963162754249</v>
       </c>
       <c r="D101">
-        <v>0.05658276176566659</v>
+        <v>0.005785363408485267</v>
       </c>
       <c r="E101">
-        <v>0.02305329812975227</v>
+        <v>0.01062981078864878</v>
       </c>
       <c r="F101">
-        <v>-0.02949248502870831</v>
+        <v>-0.02072340487189968</v>
       </c>
       <c r="G101">
-        <v>0.02420633451138768</v>
+        <v>-0.02624368498311117</v>
       </c>
       <c r="H101">
-        <v>0.07325948275566106</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.07395454387174574</v>
+      </c>
+      <c r="I101">
+        <v>-0.07292209253562106</v>
+      </c>
+      <c r="J101">
+        <v>0.0663909033283263</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +3967,16 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +3999,16 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4029,12 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
